--- a/database_final/clientes_tratado.xlsx
+++ b/database_final/clientes_tratado.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Santos Grande</t>
+          <t>SANTOS GRANDE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Farias</t>
+          <t>FARIAS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cavalcanti Do Norte</t>
+          <t>CAVALCANTI DO NORTE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rezende</t>
+          <t>REZENDE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Azevedo</t>
+          <t>AZEVEDO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Silva De Mendes</t>
+          <t>SILVA DE MENDES</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Moura</t>
+          <t>MOURA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jesus Do Oeste</t>
+          <t>JESUS DO OESTE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pinto Do Norte</t>
+          <t>PINTO DO NORTE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Almeida De Lima</t>
+          <t>ALMEIDA DE LIMA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alves</t>
+          <t>ALVES</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Monteiro Do Galho</t>
+          <t>MONTEIRO DO GALHO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cardoso Paulista</t>
+          <t>CARDOSO PAULISTA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Alves</t>
+          <t>ALVES</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>LOPES</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ramos Da Prata</t>
+          <t>RAMOS DA PRATA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Da Rocha</t>
+          <t>DA ROCHA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Alves Grande</t>
+          <t>ALVES GRANDE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>LOPES</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Moura De Gomes</t>
+          <t>MOURA DE GOMES</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Oliveira</t>
+          <t>OLIVEIRA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pereira De Da Cruz</t>
+          <t>PEREIRA DE DA CRUZ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Duarte De Carvalho</t>
+          <t>DUARTE DE CARVALHO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>MOREIRA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Barbosa Do Galho</t>
+          <t>BARBOSA DO GALHO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gonçalves Grande</t>
+          <t>GONCALVES GRANDE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>LOPES</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>VIANA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ribeiro</t>
+          <t>RIBEIRO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sales Dos Dourados</t>
+          <t>SALES DOS DOURADOS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rezende De Silva</t>
+          <t>REZENDE DE SILVA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Vieira</t>
+          <t>VIEIRA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Da Rosa</t>
+          <t>DA ROSA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>RODRIGUES</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Monteiro</t>
+          <t>MONTEIRO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>PEREIRA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mendes De Nascimento</t>
+          <t>MENDES DE NASCIMENTO</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rodrigues Grande</t>
+          <t>RODRIGUES GRANDE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Novaes</t>
+          <t>NOVAES</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rezende Do Campo</t>
+          <t>REZENDE DO CAMPO</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Da Rocha Do Oeste</t>
+          <t>DA ROCHA DO OESTE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Carvalho</t>
+          <t>CARVALHO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gomes Do Amparo</t>
+          <t>GOMES DO AMPARO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Duarte</t>
+          <t>DUARTE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Melo De Alves</t>
+          <t>MELO DE ALVES</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Viana De Da Mota</t>
+          <t>VIANA DE DA MOTA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Duarte Grande</t>
+          <t>DUARTE GRANDE</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ramos Verde</t>
+          <t>RAMOS VERDE</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Da Costa</t>
+          <t>DA COSTA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Da Mota</t>
+          <t>DA MOTA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sales Do Amparo</t>
+          <t>SALES DO AMPARO</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ribeiro De Nogueira</t>
+          <t>RIBEIRO DE NOGUEIRA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Castro De Moura</t>
+          <t>CASTRO DE MOURA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Farias Do Norte</t>
+          <t>FARIAS DO NORTE</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mendes Dos Dourados</t>
+          <t>MENDES DOS DOURADOS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Azevedo</t>
+          <t>AZEVEDO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pires</t>
+          <t>PIRES</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Vieira Das Pedras</t>
+          <t>VIEIRA DAS PEDRAS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Araújo Dos Dourados</t>
+          <t>ARAUJO DOS DOURADOS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Alves De Monteiro</t>
+          <t>ALVES DE MONTEIRO</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cardoso De Viana</t>
+          <t>CARDOSO DE VIANA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Jesus Alegre</t>
+          <t>JESUS ALEGRE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Da Costa De Gomes</t>
+          <t>DA COSTA DE GOMES</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Alves Do Oeste</t>
+          <t>ALVES DO OESTE</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Da Paz</t>
+          <t>DA PAZ</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Rezende</t>
+          <t>REZENDE</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cavalcanti Da Prata</t>
+          <t>CAVALCANTI DA PRATA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pereira De Pereira</t>
+          <t>PEREIRA DE PEREIRA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Martins Dos Dourados</t>
+          <t>MARTINS DOS DOURADOS</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Da Costa</t>
+          <t>DA COSTA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fogaça Dos Dourados</t>
+          <t>FOGACA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Souza Da Prata</t>
+          <t>SOUZA DA PRATA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Almeida De Dias</t>
+          <t>ALMEIDA DE DIAS</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Dias Alegre</t>
+          <t>DIAS ALEGRE</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Moreira De Goiás</t>
+          <t>MOREIRA DE GOIAS</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Porto De Silveira</t>
+          <t>PORTO DE SILVEIRA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Oliveira Da Prata</t>
+          <t>OLIVEIRA DA PRATA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Da Luz De Araújo</t>
+          <t>DA LUZ DE ARAUJO</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Moraes</t>
+          <t>MORAES</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Da Mota</t>
+          <t>DA MOTA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Almeida</t>
+          <t>ALMEIDA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>GOMES</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Alves</t>
+          <t>ALVES</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Silveira</t>
+          <t>SILVEIRA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Jesus Paulista</t>
+          <t>JESUS PAULISTA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>VIANA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cavalcanti Dos Dourados</t>
+          <t>CAVALCANTI DOS DOURADOS</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Da Paz De Monteiro</t>
+          <t>DA PAZ DE MONTEIRO</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Nascimento De Da Mata</t>
+          <t>NASCIMENTO DE DA MATA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Caldeira Grande</t>
+          <t>CALDEIRA GRANDE</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Alves De Da Costa</t>
+          <t>ALVES DE DA COSTA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Fogaça</t>
+          <t>FOGACA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Da Rocha Das Pedras</t>
+          <t>DA ROCHA DAS PEDRAS</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Da Mata De Minas</t>
+          <t>DA MATA DE MINAS</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Costa De Goiás</t>
+          <t>COSTA DE GOIAS</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Da Cunha</t>
+          <t>DA CUNHA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cunha Da Praia</t>
+          <t>CUNHA DA PRAIA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Fogaça</t>
+          <t>FOGACA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ferreira De Moreira</t>
+          <t>FERREIRA DE MOREIRA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Aragão</t>
+          <t>ARAGAO</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Teixeira Grande</t>
+          <t>TEIXEIRA GRANDE</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Moura</t>
+          <t>MOURA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Pinto Paulista</t>
+          <t>PINTO PAULISTA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Barros Das Flores</t>
+          <t>BARROS DAS FLORES</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Porto Do Norte</t>
+          <t>PORTO DO NORTE</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Da Rosa</t>
+          <t>DA ROSA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Peixoto Da Mata</t>
+          <t>PEIXOTO DA MATA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Monteiro</t>
+          <t>MONTEIRO</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Fogaça Das Pedras</t>
+          <t>FOGACA DAS PEDRAS</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Barbosa</t>
+          <t>BARBOSA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Oliveira Da Prata</t>
+          <t>OLIVEIRA DA PRATA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Fogaça Paulista</t>
+          <t>FOGACA PAULISTA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>RODRIGUES</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Da Rosa Da Praia</t>
+          <t>DA ROSA DA PRAIA</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Da Cunha</t>
+          <t>DA CUNHA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Pereira Da Mata</t>
+          <t>PEREIRA DA MATA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>SANTOS</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>RODRIGUES</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Da Cunha</t>
+          <t>DA CUNHA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Silveira Da Prata</t>
+          <t>SILVEIRA DA PRATA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Moura</t>
+          <t>MOURA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Mendes De Santos</t>
+          <t>MENDES DE SANTOS</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Mendes Do Norte</t>
+          <t>MENDES DO NORTE</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Ferreira</t>
+          <t>FERREIRA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Araújo Do Campo</t>
+          <t>ARAUJO DO CAMPO</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Fernandes Da Mata</t>
+          <t>FERNANDES DA MATA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Ferreira</t>
+          <t>FERREIRA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Barbosa</t>
+          <t>BARBOSA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Vieira</t>
+          <t>VIEIRA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Novaes Verde</t>
+          <t>NOVAES VERDE</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Nogueira Do Galho</t>
+          <t>NOGUEIRA DO GALHO</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Barbosa</t>
+          <t>BARBOSA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Caldeira</t>
+          <t>CALDEIRA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Alves</t>
+          <t>ALVES</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Nogueira Verde</t>
+          <t>NOGUEIRA VERDE</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ramos</t>
+          <t>RAMOS</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7781,7 +7781,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Freitas</t>
+          <t>FREITAS</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Cavalcanti</t>
+          <t>CAVALCANTI</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Martins De Goiás</t>
+          <t>MARTINS DE GOIAS</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Farias Das Flores</t>
+          <t>FARIAS DAS FLORES</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Da Costa</t>
+          <t>DA COSTA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Rocha De Minas</t>
+          <t>ROCHA DE MINAS</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Martins</t>
+          <t>MARTINS</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Cardoso De Fernandes</t>
+          <t>CARDOSO DE FERNANDES</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Novaes Das Flores</t>
+          <t>NOVAES DAS FLORES</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Silveira De Minas</t>
+          <t>SILVEIRA DE MINAS</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Pinto</t>
+          <t>PINTO</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Silveira Grande</t>
+          <t>SILVEIRA GRANDE</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Almeida De Pinto</t>
+          <t>ALMEIDA DE PINTO</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Da Conceição De Rocha</t>
+          <t>DA CONCEICAO DE ROCHA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Carvalho</t>
+          <t>CARVALHO</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Freitas Do Galho</t>
+          <t>FREITAS DO GALHO</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>MENDES</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -8726,7 +8726,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Nunes Da Prata</t>
+          <t>NUNES DA PRATA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Fogaça Da Serra</t>
+          <t>FOGACA DA SERRA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Monteiro</t>
+          <t>MONTEIRO</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Melo</t>
+          <t>MELO</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Rezende</t>
+          <t>REZENDE</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Pinto</t>
+          <t>PINTO</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Dias Da Mata</t>
+          <t>DIAS DA MATA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>MENDES</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Da Mota De Lima</t>
+          <t>DA MOTA DE LIMA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Lima Do Campo</t>
+          <t>LIMA DO CAMPO</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Cavalcanti Das Pedras</t>
+          <t>CAVALCANTI DAS PEDRAS</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>MOREIRA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Ribeiro Do Sul</t>
+          <t>RIBEIRO DO SUL</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Freitas</t>
+          <t>FREITAS</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Rodrigues De Pires</t>
+          <t>RODRIGUES DE PIRES</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Ribeiro De Goiás</t>
+          <t>RIBEIRO DE GOIAS</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Da Cruz</t>
+          <t>DA CRUZ</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Silva Alegre</t>
+          <t>SILVA ALEGRE</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Cardoso Da Praia</t>
+          <t>CARDOSO DA PRAIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Da Conceição Do Amparo</t>
+          <t>DA CONCEICAO DO AMPARO</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Oliveira De Nogueira</t>
+          <t>OLIVEIRA DE NOGUEIRA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Caldeira</t>
+          <t>CALDEIRA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Nunes De Costela</t>
+          <t>NUNES DE COSTELA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Souza</t>
+          <t>SOUZA</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Nunes</t>
+          <t>NUNES</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Moreira Dos Dourados</t>
+          <t>MOREIRA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Rocha De Peixoto</t>
+          <t>ROCHA DE PEIXOTO</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Pires Da Praia</t>
+          <t>PIRES DA PRAIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Da Rosa Da Mata</t>
+          <t>DA ROSA DA MATA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Novaes</t>
+          <t>NOVAES</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Duarte</t>
+          <t>DUARTE</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Da Rosa De Teixeira</t>
+          <t>DA ROSA DE TEIXEIRA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Santos Do Oeste</t>
+          <t>SANTOS DO OESTE</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Araújo Do Oeste</t>
+          <t>ARAUJO DO OESTE</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Souza Dos Dourados</t>
+          <t>SOUZA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Campos Grande</t>
+          <t>CAMPOS GRANDE</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Viana Da Mata</t>
+          <t>VIANA DA MATA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Freitas</t>
+          <t>FREITAS</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>GOMES</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Aragão</t>
+          <t>ARAGAO</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Ramos De Melo</t>
+          <t>RAMOS DE MELO</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Da Cruz</t>
+          <t>DA CRUZ</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Da Paz De Barros</t>
+          <t>DA PAZ DE BARROS</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>MENDES</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Da Mota</t>
+          <t>DA MOTA</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Silva De Viana</t>
+          <t>SILVA DE VIANA</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>TEIXEIRA</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -11246,7 +11246,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Da Rocha</t>
+          <t>DA ROCHA</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Jesus De Pereira</t>
+          <t>JESUS DE PEREIRA</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Azevedo Do Sul</t>
+          <t>AZEVEDO DO SUL</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Correia De Gonçalves</t>
+          <t>CORREIA DE GONCALVES</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Novaes</t>
+          <t>NOVAES</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Ribeiro</t>
+          <t>RIBEIRO</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Da Mota</t>
+          <t>DA MOTA</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Pereira Do Galho</t>
+          <t>PEREIRA DO GALHO</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Moraes</t>
+          <t>MORAES</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Alves</t>
+          <t>ALVES</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Cunha</t>
+          <t>CUNHA</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Costela</t>
+          <t>COSTELA</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Da Rocha</t>
+          <t>DA ROCHA</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Campos De Minas</t>
+          <t>CAMPOS DE MINAS</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Rezende Das Flores</t>
+          <t>REZENDE DAS FLORES</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -11966,7 +11966,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>DIAS</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Carvalho Da Serra</t>
+          <t>CARVALHO DA SERRA</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -12101,7 +12101,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Caldeira De Costela</t>
+          <t>CALDEIRA DE COSTELA</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Da Rosa</t>
+          <t>DA ROSA</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Carvalho Do Norte</t>
+          <t>CARVALHO DO NORTE</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Barros Do Oeste</t>
+          <t>BARROS DO OESTE</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Da Luz Do Amparo</t>
+          <t>DA LUZ DO AMPARO</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Carvalho</t>
+          <t>CARVALHO</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Nogueira Do Amparo</t>
+          <t>NOGUEIRA DO AMPARO</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Caldeira</t>
+          <t>CALDEIRA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Rezende</t>
+          <t>REZENDE</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Silva De Moraes</t>
+          <t>SILVA DE MORAES</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Teixeira De Da Paz</t>
+          <t>TEIXEIRA DE DA PAZ</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Ferreira Dos Dourados</t>
+          <t>FERREIRA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Pires</t>
+          <t>PIRES</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Nascimento</t>
+          <t>NASCIMENTO</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Nunes</t>
+          <t>NUNES</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Costela</t>
+          <t>COSTELA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Costela</t>
+          <t>COSTELA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Silveira De Pinto</t>
+          <t>SILVEIRA DE PINTO</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Araújo De Pereira</t>
+          <t>ARAUJO DE PEREIRA</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>DIAS</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Da Mota Do Campo</t>
+          <t>DA MOTA DO CAMPO</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Costela De Almeida</t>
+          <t>COSTELA DE ALMEIDA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Cunha De Nascimento</t>
+          <t>CUNHA DE NASCIMENTO</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Da Mata De Da Mata</t>
+          <t>DA MATA DE DA MATA</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Pereira Do Amparo</t>
+          <t>PEREIRA DO AMPARO</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Novaes Paulista</t>
+          <t>NOVAES PAULISTA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Melo Da Prata</t>
+          <t>MELO DA PRATA</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -13361,7 +13361,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Monteiro</t>
+          <t>MONTEIRO</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Teixeira De Moreira</t>
+          <t>TEIXEIRA DE MOREIRA</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Sales Do Campo</t>
+          <t>SALES DO CAMPO</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>TEIXEIRA</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>TEIXEIRA</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -13586,7 +13586,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Ferreira De Dias</t>
+          <t>FERREIRA DE DIAS</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Cavalcanti</t>
+          <t>CAVALCANTI</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Carvalho De Melo</t>
+          <t>CARVALHO DE MELO</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Castro Das Pedras</t>
+          <t>CASTRO DAS PEDRAS</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Azevedo</t>
+          <t>AZEVEDO</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Fernandes De Goiás</t>
+          <t>FERNANDES DE GOIAS</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -13856,7 +13856,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Da Rosa Grande</t>
+          <t>DA ROSA GRANDE</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Lima De Pereira</t>
+          <t>LIMA DE PEREIRA</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Caldeira</t>
+          <t>CALDEIRA</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Porto Da Praia</t>
+          <t>PORTO DA PRAIA</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Da Costa Do Galho</t>
+          <t>DA COSTA DO GALHO</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Novaes Do Norte</t>
+          <t>NOVAES DO NORTE</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -14171,7 +14171,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Da Cruz</t>
+          <t>DA CRUZ</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Vieira Do Campo</t>
+          <t>VIEIRA DO CAMPO</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -14261,7 +14261,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Araújo</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>LOPES</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -14396,7 +14396,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Correia</t>
+          <t>CORREIA</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Pereira De Ferreira</t>
+          <t>PEREIRA DE FERREIRA</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Caldeira</t>
+          <t>CALDEIRA</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>TEIXEIRA</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Da Rosa</t>
+          <t>DA ROSA</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -14621,7 +14621,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Azevedo</t>
+          <t>AZEVEDO</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Farias</t>
+          <t>FARIAS</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Nunes De Campos</t>
+          <t>NUNES DE CAMPOS</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -14801,7 +14801,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Ribeiro</t>
+          <t>RIBEIRO</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -14846,7 +14846,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Barbosa</t>
+          <t>BARBOSA</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Rocha Do Galho</t>
+          <t>ROCHA DO GALHO</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Jesus Da Praia</t>
+          <t>JESUS DA PRAIA</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>DIAS</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -15026,7 +15026,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Ferreira De Novaes</t>
+          <t>FERREIRA DE NOVAES</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Cunha De Mendes</t>
+          <t>CUNHA DE MENDES</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -15116,7 +15116,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Moura Do Oeste</t>
+          <t>MOURA DO OESTE</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Aragão Das Flores</t>
+          <t>ARAGAO DAS FLORES</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Cunha</t>
+          <t>CUNHA</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -15296,7 +15296,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Carvalho</t>
+          <t>CARVALHO</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -15341,7 +15341,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Araújo Da Prata</t>
+          <t>ARAUJO DA PRATA</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Silva Do Campo</t>
+          <t>SILVA DO CAMPO</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Moura</t>
+          <t>MOURA</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -15521,7 +15521,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>DIAS</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Cunha Da Praia</t>
+          <t>CUNHA DA PRAIA</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Costela</t>
+          <t>COSTELA</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -15656,7 +15656,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Monteiro</t>
+          <t>MONTEIRO</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -15701,7 +15701,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Barros Do Galho</t>
+          <t>BARROS DO GALHO</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -15746,7 +15746,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Pinto</t>
+          <t>PINTO</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Alves</t>
+          <t>ALVES</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Monteiro</t>
+          <t>MONTEIRO</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Ferreira</t>
+          <t>FERREIRA</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Vieira Do Sul</t>
+          <t>VIEIRA DO SUL</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -16061,7 +16061,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Souza</t>
+          <t>SOUZA</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -16106,7 +16106,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Fernandes Da Mata</t>
+          <t>FERNANDES DA MATA</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Farias Do Sul</t>
+          <t>FARIAS DO SUL</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -16196,7 +16196,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Pires</t>
+          <t>PIRES</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -16286,7 +16286,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>VIANA</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -16376,7 +16376,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Da Cruz De Nascimento</t>
+          <t>DA CRUZ DE NASCIMENTO</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -16421,7 +16421,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Peixoto Do Campo</t>
+          <t>PEIXOTO DO CAMPO</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Pires De Minas</t>
+          <t>PIRES DE MINAS</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Cunha Das Flores</t>
+          <t>CUNHA DAS FLORES</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Da Mata</t>
+          <t>DA MATA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -16601,7 +16601,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Mendes Da Prata</t>
+          <t>MENDES DA PRATA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -16646,7 +16646,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Almeida</t>
+          <t>ALMEIDA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -16691,7 +16691,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>RODRIGUES</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -16781,7 +16781,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Das Neves Do Campo</t>
+          <t>DAS NEVES DO CAMPO</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -16826,7 +16826,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Araújo Do Norte</t>
+          <t>ARAUJO DO NORTE</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Da Paz</t>
+          <t>DA PAZ</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -16916,7 +16916,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Sales Grande</t>
+          <t>SALES GRANDE</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Nascimento De Da Mota</t>
+          <t>NASCIMENTO DE DA MOTA</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Da Luz Do Norte</t>
+          <t>DA LUZ DO NORTE</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Ribeiro Do Sul</t>
+          <t>RIBEIRO DO SUL</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Nunes De Ramos</t>
+          <t>NUNES DE RAMOS</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -17141,7 +17141,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Silveira Das Pedras</t>
+          <t>SILVEIRA DAS PEDRAS</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Mendes De Novaes</t>
+          <t>MENDES DE NOVAES</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Freitas Alegre</t>
+          <t>FREITAS ALEGRE</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -17276,7 +17276,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Pires</t>
+          <t>PIRES</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -17321,7 +17321,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -17366,7 +17366,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Cardoso Dos Dourados</t>
+          <t>CARDOSO DOS DOURADOS</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -17411,7 +17411,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Moraes</t>
+          <t>MORAES</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Campos</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Cavalcanti De Goiás</t>
+          <t>CAVALCANTI DE GOIAS</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>MOREIRA</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Fogaça</t>
+          <t>FOGACA</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -17636,7 +17636,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Da Paz Da Prata</t>
+          <t>DA PAZ DA PRATA</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Nunes</t>
+          <t>NUNES</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -17726,7 +17726,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Moreira Verde</t>
+          <t>MOREIRA VERDE</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -17771,7 +17771,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Rocha</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Castro Da Mata</t>
+          <t>CASTRO DA MATA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -17861,7 +17861,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Oliveira</t>
+          <t>OLIVEIRA</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>TEIXEIRA</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Martins</t>
+          <t>MARTINS</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -17996,7 +17996,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Nogueira</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -18041,7 +18041,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Sales Alegre</t>
+          <t>SALES ALEGRE</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Da Mata De Aragão</t>
+          <t>DA MATA DE ARAGAO</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Da Luz De Farias</t>
+          <t>DA LUZ DE FARIAS</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -18221,7 +18221,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Pires Paulista</t>
+          <t>PIRES PAULISTA</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Da Mata</t>
+          <t>DA MATA</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Da Cruz</t>
+          <t>DA CRUZ</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -18356,7 +18356,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Farias</t>
+          <t>FARIAS</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -18401,7 +18401,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Mendes Das Flores</t>
+          <t>MENDES DAS FLORES</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Carvalho</t>
+          <t>CARVALHO</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -18491,7 +18491,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Novaes</t>
+          <t>NOVAES</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -18536,7 +18536,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Almeida</t>
+          <t>ALMEIDA</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Costa Do Sul</t>
+          <t>COSTA DO SUL</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -18626,7 +18626,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Costela Do Galho</t>
+          <t>COSTELA DO GALHO</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -18671,7 +18671,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Barbosa De Dias</t>
+          <t>BARBOSA DE DIAS</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>LOPES</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Campos Da Mata</t>
+          <t>CAMPOS DA MATA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -18806,7 +18806,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Aragão</t>
+          <t>ARAGAO</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>MOREIRA</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Araújo De Minas</t>
+          <t>ARAUJO DE MINAS</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -18941,7 +18941,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Campos</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -18986,7 +18986,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Oliveira</t>
+          <t>OLIVEIRA</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -19031,7 +19031,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Barbosa Do Sul</t>
+          <t>BARBOSA DO SUL</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -19076,7 +19076,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Correia Dos Dourados</t>
+          <t>CORREIA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Pereira Do Oeste</t>
+          <t>PEREIRA DO OESTE</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -19166,7 +19166,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Caldeira Da Mata</t>
+          <t>CALDEIRA DA MATA</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Melo De Minas</t>
+          <t>MELO DE MINAS</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -19256,7 +19256,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Ramos</t>
+          <t>RAMOS</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Da Mata</t>
+          <t>DA MATA</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Pereira Dos Dourados</t>
+          <t>PEREIRA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -19391,7 +19391,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Farias</t>
+          <t>FARIAS</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -19436,7 +19436,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Cunha Do Sul</t>
+          <t>CUNHA DO SUL</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -19481,7 +19481,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Ramos Do Amparo</t>
+          <t>RAMOS DO AMPARO</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -19526,7 +19526,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Cunha</t>
+          <t>CUNHA</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Porto Do Amparo</t>
+          <t>PORTO DO AMPARO</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Da Mota</t>
+          <t>DA MOTA</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -19661,7 +19661,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Correia Da Praia</t>
+          <t>CORREIA DA PRAIA</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -19706,7 +19706,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -19751,7 +19751,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>MENDES</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Novaes</t>
+          <t>NOVAES</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -19841,7 +19841,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Da Rosa Verde</t>
+          <t>DA ROSA VERDE</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -19886,7 +19886,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Farias Do Norte</t>
+          <t>FARIAS DO NORTE</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -19931,7 +19931,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Ribeiro Do Amparo</t>
+          <t>RIBEIRO DO AMPARO</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Rezende</t>
+          <t>REZENDE</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -20021,7 +20021,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>DIAS</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -20066,7 +20066,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Da Mata De Cardoso</t>
+          <t>DA MATA DE CARDOSO</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Rocha</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Melo Do Oeste</t>
+          <t>MELO DO OESTE</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -20201,7 +20201,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Rocha De Carvalho</t>
+          <t>ROCHA DE CARVALHO</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -20246,7 +20246,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Moraes Dos Dourados</t>
+          <t>MORAES DOS DOURADOS</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -20291,7 +20291,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Barbosa De Goiás</t>
+          <t>BARBOSA DE GOIAS</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -20336,7 +20336,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Teixeira Dos Dourados</t>
+          <t>TEIXEIRA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -20381,7 +20381,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Nascimento</t>
+          <t>NASCIMENTO</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>DIAS</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -20471,7 +20471,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Ferreira Da Praia</t>
+          <t>FERREIRA DA PRAIA</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -20516,7 +20516,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Teixeira Da Praia</t>
+          <t>TEIXEIRA DA PRAIA</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -20561,7 +20561,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Ramos</t>
+          <t>RAMOS</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -20606,7 +20606,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Cunha</t>
+          <t>CUNHA</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -20651,7 +20651,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Cavalcanti De Lima</t>
+          <t>CAVALCANTI DE LIMA</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -20696,7 +20696,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>LOPES</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -20741,7 +20741,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Ramos Da Prata</t>
+          <t>RAMOS DA PRATA</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -20786,7 +20786,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -20831,7 +20831,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Nunes Das Flores</t>
+          <t>NUNES DAS FLORES</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Peixoto Das Flores</t>
+          <t>PEIXOTO DAS FLORES</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -20921,7 +20921,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Da Cunha Das Pedras</t>
+          <t>DA CUNHA DAS PEDRAS</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -20966,7 +20966,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Ferreira Dos Dourados</t>
+          <t>FERREIRA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Lima Do Galho</t>
+          <t>LIMA DO GALHO</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Melo De Porto</t>
+          <t>MELO DE PORTO</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -21101,7 +21101,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Ferreira De Costela</t>
+          <t>FERREIRA DE COSTELA</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -21146,7 +21146,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Lopes De Goiás</t>
+          <t>LOPES DE GOIAS</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -21191,7 +21191,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Costela</t>
+          <t>COSTELA</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -21236,7 +21236,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Monteiro De Da Cunha</t>
+          <t>MONTEIRO DE DA CUNHA</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -21281,7 +21281,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Souza Da Mata</t>
+          <t>SOUZA DA MATA</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Cavalcanti</t>
+          <t>CAVALCANTI</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -21371,7 +21371,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Da Paz</t>
+          <t>DA PAZ</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>TEIXEIRA</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -21461,7 +21461,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Moura De Costa</t>
+          <t>MOURA DE COSTA</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -21506,7 +21506,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Ramos Do Sul</t>
+          <t>RAMOS DO SUL</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -21551,7 +21551,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -21596,7 +21596,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>VIANA</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -21641,7 +21641,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Duarte</t>
+          <t>DUARTE</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -21686,7 +21686,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Das Neves Verde</t>
+          <t>DAS NEVES VERDE</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Moreira De Vieira</t>
+          <t>MOREIRA DE VIEIRA</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Da Cruz</t>
+          <t>DA CRUZ</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -21821,7 +21821,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Moraes</t>
+          <t>MORAES</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -21866,7 +21866,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -21911,7 +21911,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>TEIXEIRA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -21956,7 +21956,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Oliveira</t>
+          <t>OLIVEIRA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -22001,7 +22001,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Moraes Da Mata</t>
+          <t>MORAES DA MATA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -22046,7 +22046,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Martins Do Campo</t>
+          <t>MARTINS DO CAMPO</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Da Cunha</t>
+          <t>DA CUNHA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Martins Da Prata</t>
+          <t>MARTINS DA PRATA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -22181,7 +22181,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Vieira</t>
+          <t>VIEIRA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -22226,7 +22226,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Correia</t>
+          <t>CORREIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -22271,7 +22271,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Da Mota Do Sul</t>
+          <t>DA MOTA DO SUL</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Castro Paulista</t>
+          <t>CASTRO PAULISTA</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -22361,7 +22361,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Araújo</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -22406,7 +22406,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Da Mata Grande</t>
+          <t>DA MATA GRANDE</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -22451,7 +22451,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Vieira De Moraes</t>
+          <t>VIEIRA DE MORAES</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Da Mata</t>
+          <t>DA MATA</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -22541,7 +22541,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Almeida</t>
+          <t>ALMEIDA</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -22586,7 +22586,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Ramos Das Flores</t>
+          <t>RAMOS DAS FLORES</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Cavalcanti</t>
+          <t>CAVALCANTI</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -22676,7 +22676,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Melo Da Mata</t>
+          <t>MELO DA MATA</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Da Paz Do Galho</t>
+          <t>DA PAZ DO GALHO</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -22766,7 +22766,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Caldeira Alegre</t>
+          <t>CALDEIRA ALEGRE</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -22811,7 +22811,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Fogaça Do Galho</t>
+          <t>FOGACA DO GALHO</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -22901,7 +22901,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -22946,7 +22946,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Correia De Goiás</t>
+          <t>CORREIA DE GOIAS</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -22991,7 +22991,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Cunha De Mendes</t>
+          <t>CUNHA DE MENDES</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -23036,7 +23036,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Porto De Castro</t>
+          <t>PORTO DE CASTRO</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -23081,7 +23081,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>SANTOS</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -23171,7 +23171,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Novaes De Minas</t>
+          <t>NOVAES DE MINAS</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -23216,7 +23216,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Almeida Grande</t>
+          <t>ALMEIDA GRANDE</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -23261,7 +23261,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -23306,7 +23306,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -23396,7 +23396,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>VIANA</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -23441,7 +23441,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>TEIXEIRA</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -23486,7 +23486,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Correia</t>
+          <t>CORREIA</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -23531,7 +23531,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -23576,7 +23576,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Viana Do Sul</t>
+          <t>VIANA DO SUL</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Martins Dos Dourados</t>
+          <t>MARTINS DOS DOURADOS</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -23666,7 +23666,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Almeida De Castro</t>
+          <t>ALMEIDA DE CASTRO</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Da Mota Do Galho</t>
+          <t>DA MOTA DO GALHO</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -23756,7 +23756,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Fernandes Da Mata</t>
+          <t>FERNANDES DA MATA</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -23801,7 +23801,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Ferreira</t>
+          <t>FERREIRA</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -23846,7 +23846,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Almeida Do Sul</t>
+          <t>ALMEIDA DO SUL</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -23891,7 +23891,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Fogaça De Minas</t>
+          <t>FOGACA DE MINAS</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Azevedo</t>
+          <t>AZEVEDO</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Dias Do Amparo</t>
+          <t>DIAS DO AMPARO</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -24026,7 +24026,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Lopes Da Serra</t>
+          <t>LOPES DA SERRA</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -24071,7 +24071,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Lopes De Lopes</t>
+          <t>LOPES DE LOPES</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -24116,7 +24116,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Jesus Da Praia</t>
+          <t>JESUS DA PRAIA</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -24161,7 +24161,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Moreira De Nogueira</t>
+          <t>MOREIRA DE NOGUEIRA</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -24206,7 +24206,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Da Paz Do Norte</t>
+          <t>DA PAZ DO NORTE</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -24251,7 +24251,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Da Cunha Da Prata</t>
+          <t>DA CUNHA DA PRATA</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -24296,7 +24296,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>SANTOS</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -24341,7 +24341,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Moura</t>
+          <t>MOURA</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Barros</t>
+          <t>BARROS</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -24431,7 +24431,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Barros</t>
+          <t>BARROS</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Da Luz De Ramos</t>
+          <t>DA LUZ DE RAMOS</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -24521,7 +24521,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Pinto</t>
+          <t>PINTO</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -24566,7 +24566,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Da Rosa</t>
+          <t>DA ROSA</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>PEREIRA</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -24656,7 +24656,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -24701,7 +24701,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Almeida</t>
+          <t>ALMEIDA</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -24746,7 +24746,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Alves</t>
+          <t>ALVES</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -24791,7 +24791,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Vieira</t>
+          <t>VIEIRA</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -24836,7 +24836,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Da Mota</t>
+          <t>DA MOTA</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -24881,7 +24881,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Cavalcanti Paulista</t>
+          <t>CAVALCANTI PAULISTA</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -24926,7 +24926,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -24971,7 +24971,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Rezende Das Flores</t>
+          <t>REZENDE DAS FLORES</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -25016,7 +25016,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Cardoso De Da Rocha</t>
+          <t>CARDOSO DE DA ROCHA</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -25106,7 +25106,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Campos Da Serra</t>
+          <t>CAMPOS DA SERRA</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -25151,7 +25151,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Da Paz</t>
+          <t>DA PAZ</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -25196,7 +25196,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Viana De Minas</t>
+          <t>VIANA DE MINAS</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Carvalho</t>
+          <t>CARVALHO</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -25286,7 +25286,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Rezende Das Flores</t>
+          <t>REZENDE DAS FLORES</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -25331,7 +25331,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Azevedo</t>
+          <t>AZEVEDO</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -25376,7 +25376,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Sales Do Norte</t>
+          <t>SALES DO NORTE</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -25421,7 +25421,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Martins</t>
+          <t>MARTINS</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -25466,7 +25466,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Araújo</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -25511,7 +25511,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>RODRIGUES</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Araújo Das Flores</t>
+          <t>ARAUJO DAS FLORES</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -25601,7 +25601,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Gonçalves Do Sul</t>
+          <t>GONCALVES DO SUL</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -25646,7 +25646,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -25691,7 +25691,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>MOREIRA</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -25736,7 +25736,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -25781,7 +25781,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Nogueira</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -25826,7 +25826,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Jesus Do Galho</t>
+          <t>JESUS DO GALHO</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -25871,7 +25871,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Monteiro</t>
+          <t>MONTEIRO</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -25961,7 +25961,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Porto De Minas</t>
+          <t>PORTO DE MINAS</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -26006,7 +26006,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -26051,7 +26051,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Da Conceição Da Serra</t>
+          <t>DA CONCEICAO DA SERRA</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -26096,7 +26096,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Castro Do Norte</t>
+          <t>CASTRO DO NORTE</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -26141,7 +26141,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Da Rocha Dos Dourados</t>
+          <t>DA ROCHA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Ramos De Martins</t>
+          <t>RAMOS DE MARTINS</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Cardoso Paulista</t>
+          <t>CARDOSO PAULISTA</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -26276,7 +26276,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>MENDES</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -26321,7 +26321,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -26366,7 +26366,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Moraes Grande</t>
+          <t>MORAES GRANDE</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -26456,7 +26456,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -26501,7 +26501,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>SANTOS</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -26546,7 +26546,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -26591,7 +26591,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Azevedo</t>
+          <t>AZEVEDO</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -26636,7 +26636,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Caldeira</t>
+          <t>CALDEIRA</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -26681,7 +26681,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Moreira Do Amparo</t>
+          <t>MOREIRA DO AMPARO</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -26726,7 +26726,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Costela Verde</t>
+          <t>COSTELA VERDE</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -26771,7 +26771,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Azevedo De Cardoso</t>
+          <t>AZEVEDO DE CARDOSO</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -26816,7 +26816,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Vieira</t>
+          <t>VIEIRA</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -26861,7 +26861,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Farias Do Campo</t>
+          <t>FARIAS DO CAMPO</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -26906,7 +26906,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -26951,7 +26951,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Fogaça Do Campo</t>
+          <t>FOGACA DO CAMPO</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -27086,7 +27086,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Campos Do Campo</t>
+          <t>CAMPOS DO CAMPO</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -27131,7 +27131,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Sales Do Sul</t>
+          <t>SALES DO SUL</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -27176,7 +27176,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Cavalcanti</t>
+          <t>CAVALCANTI</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -27221,7 +27221,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Da Cruz Da Mata</t>
+          <t>DA CRUZ DA MATA</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -27266,7 +27266,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Peixoto De Goiás</t>
+          <t>PEIXOTO DE GOIAS</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -27311,7 +27311,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Nogueira</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -27356,7 +27356,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Aragão Do Galho</t>
+          <t>ARAGAO DO GALHO</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -27401,7 +27401,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Cunha</t>
+          <t>CUNHA</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -27491,7 +27491,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Porto Dos Dourados</t>
+          <t>PORTO DOS DOURADOS</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -27536,7 +27536,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Monteiro Das Flores</t>
+          <t>MONTEIRO DAS FLORES</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -27581,7 +27581,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Ramos Da Prata</t>
+          <t>RAMOS DA PRATA</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -27626,7 +27626,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Cardoso Da Prata</t>
+          <t>CARDOSO DA PRATA</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -27671,7 +27671,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Barros</t>
+          <t>BARROS</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -27716,7 +27716,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Da Rosa De Fernandes</t>
+          <t>DA ROSA DE FERNANDES</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Araújo De Martins</t>
+          <t>ARAUJO DE MARTINS</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -27806,7 +27806,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Novaes</t>
+          <t>NOVAES</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Nogueira</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -27896,7 +27896,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Sales Do Sul</t>
+          <t>SALES DO SUL</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -27941,7 +27941,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Da Cunha</t>
+          <t>DA CUNHA</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -27986,7 +27986,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Campos</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -28031,7 +28031,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Correia</t>
+          <t>CORREIA</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -28076,7 +28076,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Silveira</t>
+          <t>SILVEIRA</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -28121,7 +28121,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Souza Do Campo</t>
+          <t>SOUZA DO CAMPO</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -28166,7 +28166,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Azevedo Do Galho</t>
+          <t>AZEVEDO DO GALHO</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -28211,7 +28211,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Caldeira Da Prata</t>
+          <t>CALDEIRA DA PRATA</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -28256,7 +28256,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -28301,7 +28301,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Da Mata De Nogueira</t>
+          <t>DA MATA DE NOGUEIRA</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -28346,7 +28346,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Moura</t>
+          <t>MOURA</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -28391,7 +28391,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>GOMES</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Barros Dos Dourados</t>
+          <t>BARROS DOS DOURADOS</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -28481,7 +28481,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Duarte Do Sul</t>
+          <t>DUARTE DO SUL</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -28526,7 +28526,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Rocha De Peixoto</t>
+          <t>ROCHA DE PEIXOTO</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -28571,7 +28571,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Ferreira</t>
+          <t>FERREIRA</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -28616,7 +28616,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Cavalcanti</t>
+          <t>CAVALCANTI</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -28661,7 +28661,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Pinto</t>
+          <t>PINTO</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -28706,7 +28706,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -28751,7 +28751,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -28796,7 +28796,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Viana De Vieira</t>
+          <t>VIANA DE VIEIRA</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
@@ -28841,7 +28841,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Da Mota</t>
+          <t>DA MOTA</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -28886,7 +28886,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -28931,7 +28931,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Da Paz Do Amparo</t>
+          <t>DA PAZ DO AMPARO</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Monteiro Das Flores</t>
+          <t>MONTEIRO DAS FLORES</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Souza</t>
+          <t>SOUZA</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -29066,7 +29066,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Silveira De Vieira</t>
+          <t>SILVEIRA DE VIEIRA</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
@@ -29111,7 +29111,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Monteiro</t>
+          <t>MONTEIRO</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -29156,7 +29156,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Rezende Da Serra</t>
+          <t>REZENDE DA SERRA</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -29201,7 +29201,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Peixoto Do Campo</t>
+          <t>PEIXOTO DO CAMPO</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -29246,7 +29246,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Da Mota De Moreira</t>
+          <t>DA MOTA DE MOREIRA</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Carvalho Verde</t>
+          <t>CARVALHO VERDE</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -29336,7 +29336,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Campos</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -29381,7 +29381,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -29426,7 +29426,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>PORTO ALEGRE</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -29471,7 +29471,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -29516,7 +29516,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>DIAS</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -29561,7 +29561,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Da Costa</t>
+          <t>DA COSTA</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -29606,7 +29606,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Fernandes De Minas</t>
+          <t>FERNANDES DE MINAS</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -29651,7 +29651,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Moreira Da Praia</t>
+          <t>MOREIRA DA PRAIA</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -29696,7 +29696,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -29741,7 +29741,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Jesus Dos Dourados</t>
+          <t>JESUS DOS DOURADOS</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -29786,7 +29786,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Costa De Goiás</t>
+          <t>COSTA DE GOIAS</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -29831,7 +29831,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Monteiro Alegre</t>
+          <t>MONTEIRO ALEGRE</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -29876,7 +29876,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>PORTO</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -29921,7 +29921,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Barbosa Das Flores</t>
+          <t>BARBOSA DAS FLORES</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -29966,7 +29966,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Da Mata Dos Dourados</t>
+          <t>DA MATA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -30011,7 +30011,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -30056,7 +30056,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Castro De Gonçalves</t>
+          <t>CASTRO DE GONCALVES</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -30101,7 +30101,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Monteiro De Vieira</t>
+          <t>MONTEIRO DE VIEIRA</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -30146,7 +30146,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Almeida</t>
+          <t>ALMEIDA</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
@@ -30191,7 +30191,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Vieira</t>
+          <t>VIEIRA</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -30236,7 +30236,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Sales De Viana</t>
+          <t>SALES DE VIANA</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -30281,7 +30281,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Campos</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -30326,7 +30326,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Da Costa De Minas</t>
+          <t>DA COSTA DE MINAS</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
@@ -30371,7 +30371,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Da Mata Do Campo</t>
+          <t>DA MATA DO CAMPO</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Lopes Da Praia</t>
+          <t>LOPES DA PRAIA</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
@@ -30461,7 +30461,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Ribeiro Alegre</t>
+          <t>RIBEIRO ALEGRE</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -30506,7 +30506,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Da Rocha</t>
+          <t>DA ROCHA</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -30551,7 +30551,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Martins</t>
+          <t>MARTINS</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -30596,7 +30596,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Oliveira Grande</t>
+          <t>OLIVEIRA GRANDE</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -30641,7 +30641,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Moraes</t>
+          <t>MORAES</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -30686,7 +30686,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -30731,7 +30731,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -30776,7 +30776,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Moreira De Minas</t>
+          <t>MOREIRA DE MINAS</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -30821,7 +30821,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Fernandes Do Sul</t>
+          <t>FERNANDES DO SUL</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -30866,7 +30866,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Cardoso Da Serra</t>
+          <t>CARDOSO DA SERRA</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -30911,7 +30911,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Porto Do Amparo</t>
+          <t>PORTO DO AMPARO</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -30956,7 +30956,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Da Paz Dos Dourados</t>
+          <t>DA PAZ DOS DOURADOS</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
@@ -31001,7 +31001,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Fernandes Das Flores</t>
+          <t>FERNANDES DAS FLORES</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -31091,7 +31091,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>MOREIRA</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Costela Da Praia</t>
+          <t>COSTELA DA PRAIA</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -31181,7 +31181,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Lopes De Freitas</t>
+          <t>LOPES DE FREITAS</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -31226,7 +31226,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Moraes</t>
+          <t>MORAES</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
@@ -31271,7 +31271,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Castro Do Norte</t>
+          <t>CASTRO DO NORTE</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
@@ -31316,7 +31316,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Carvalho</t>
+          <t>CARVALHO</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -31361,7 +31361,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Melo</t>
+          <t>MELO</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -31406,7 +31406,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Gomes De Nogueira</t>
+          <t>GOMES DE NOGUEIRA</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
@@ -31451,7 +31451,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Da Mata</t>
+          <t>DA MATA</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -31496,7 +31496,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -31541,7 +31541,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Sales De Goiás</t>
+          <t>SALES DE GOIAS</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
@@ -31586,7 +31586,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
@@ -31631,7 +31631,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Da Mata Do Oeste</t>
+          <t>DA MATA DO OESTE</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -31676,7 +31676,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Monteiro De Caldeira</t>
+          <t>MONTEIRO DE CALDEIRA</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -31721,7 +31721,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>PEREIRA</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Pires</t>
+          <t>PIRES</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -31811,7 +31811,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Monteiro</t>
+          <t>MONTEIRO</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -31856,7 +31856,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>Alves Paulista</t>
+          <t>ALVES PAULISTA</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -31901,7 +31901,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Dias Da Mata</t>
+          <t>DIAS DA MATA</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -31946,7 +31946,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Gomes Grande</t>
+          <t>GOMES GRANDE</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
@@ -31991,7 +31991,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -32036,7 +32036,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Souza Dos Dourados</t>
+          <t>SOUZA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -32081,7 +32081,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Silva De Teixeira</t>
+          <t>SILVA DE TEIXEIRA</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
@@ -32126,7 +32126,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -32171,7 +32171,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>Silveira Do Campo</t>
+          <t>SILVEIRA DO CAMPO</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -32216,7 +32216,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Alves Da Serra</t>
+          <t>ALVES DA SERRA</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
@@ -32261,7 +32261,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Azevedo Da Praia</t>
+          <t>AZEVEDO DA PRAIA</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -32306,7 +32306,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -32396,7 +32396,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>Martins Da Mata</t>
+          <t>MARTINS DA MATA</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -32441,7 +32441,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Monteiro De Moraes</t>
+          <t>MONTEIRO DE MORAES</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -32486,7 +32486,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>Nogueira</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -32531,7 +32531,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>Silva Das Pedras</t>
+          <t>SILVA DAS PEDRAS</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -32576,7 +32576,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Cunha</t>
+          <t>CUNHA</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>RODRIGUES</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -32666,7 +32666,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>DIAS</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -32711,7 +32711,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>Da Rocha De Lima</t>
+          <t>DA ROCHA DE LIMA</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
@@ -32756,7 +32756,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>GOMES</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -32801,7 +32801,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>Da Cruz</t>
+          <t>DA CRUZ</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
@@ -32846,7 +32846,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Almeida Do Sul</t>
+          <t>ALMEIDA DO SUL</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
@@ -32891,7 +32891,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Santos De Da Luz</t>
+          <t>SANTOS DE DA LUZ</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Campos</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>Araújo</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -33026,7 +33026,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>Moreira Do Oeste</t>
+          <t>MOREIRA DO OESTE</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -33071,7 +33071,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -33116,7 +33116,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -33161,7 +33161,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>Da Rocha</t>
+          <t>DA ROCHA</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
@@ -33206,7 +33206,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>Novaes De Pires</t>
+          <t>NOVAES DE PIRES</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -33251,7 +33251,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>Melo</t>
+          <t>MELO</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
@@ -33296,7 +33296,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>Nunes Grande</t>
+          <t>NUNES GRANDE</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
@@ -33341,7 +33341,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>Porto Do Campo</t>
+          <t>PORTO DO CAMPO</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -33386,7 +33386,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>Ferreira</t>
+          <t>FERREIRA</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -33431,7 +33431,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>Carvalho De Ribeiro</t>
+          <t>CARVALHO DE RIBEIRO</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
@@ -33476,7 +33476,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
@@ -33521,7 +33521,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>VIANA</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>Da Mota</t>
+          <t>DA MOTA</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
@@ -33611,7 +33611,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>Farias Do Sul</t>
+          <t>FARIAS DO SUL</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
@@ -33656,7 +33656,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>Pires De Da Mata</t>
+          <t>PIRES DE DA MATA</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -33701,7 +33701,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>Vieira</t>
+          <t>VIEIRA</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -33746,7 +33746,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
@@ -33791,7 +33791,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
@@ -33836,7 +33836,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>Mendes De Viana</t>
+          <t>MENDES DE VIANA</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -33881,7 +33881,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>Santos Dos Dourados</t>
+          <t>SANTOS DOS DOURADOS</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
@@ -33926,7 +33926,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>Ribeiro De Goiás</t>
+          <t>RIBEIRO DE GOIAS</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -33971,7 +33971,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>Martins</t>
+          <t>MARTINS</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
@@ -34016,7 +34016,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -34061,7 +34061,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>MENDES</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -34106,7 +34106,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>Das Neves</t>
+          <t>DAS NEVES</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -34151,7 +34151,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Da Costa</t>
+          <t>DA COSTA</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -34196,7 +34196,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>VIANA</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -34241,7 +34241,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>Farias</t>
+          <t>FARIAS</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
@@ -34286,7 +34286,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>Pinto Do Oeste</t>
+          <t>PINTO DO OESTE</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -34331,7 +34331,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>Novaes</t>
+          <t>NOVAES</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -34376,7 +34376,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>Da Mata</t>
+          <t>DA MATA</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
@@ -34421,7 +34421,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
@@ -34466,7 +34466,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>Sales De Minas</t>
+          <t>SALES DE MINAS</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
@@ -34511,7 +34511,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>Novaes Da Serra</t>
+          <t>NOVAES DA SERRA</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
@@ -34556,7 +34556,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>Farias</t>
+          <t>FARIAS</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -34601,7 +34601,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>Moreira De Dias</t>
+          <t>MOREIRA DE DIAS</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -34646,7 +34646,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>Nunes Do Galho</t>
+          <t>NUNES DO GALHO</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -34691,7 +34691,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>Araújo Da Prata</t>
+          <t>ARAUJO DA PRATA</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -34736,7 +34736,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>VIANA</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -34781,7 +34781,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>MENDES</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
@@ -34826,7 +34826,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>Da Paz De Da Mota</t>
+          <t>DA PAZ DE DA MOTA</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
@@ -34871,7 +34871,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>Peixoto De Silveira</t>
+          <t>PEIXOTO DE SILVEIRA</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -34916,7 +34916,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>Caldeira</t>
+          <t>CALDEIRA</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
@@ -34961,7 +34961,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>Rocha De Viana</t>
+          <t>ROCHA DE VIANA</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -35006,7 +35006,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>Souza</t>
+          <t>SOUZA</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -35051,7 +35051,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>Da Rosa</t>
+          <t>DA ROSA</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
@@ -35096,7 +35096,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>MOREIRA</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -35141,7 +35141,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>Ribeiro</t>
+          <t>RIBEIRO</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -35186,7 +35186,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>Correia</t>
+          <t>CORREIA</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
@@ -35231,7 +35231,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>PORTO</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -35276,7 +35276,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>Nogueira De Fernandes</t>
+          <t>NOGUEIRA DE FERNANDES</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -35321,7 +35321,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>Correia De Caldeira</t>
+          <t>CORREIA DE CALDEIRA</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
@@ -35366,7 +35366,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -35411,7 +35411,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>Rocha Das Pedras</t>
+          <t>ROCHA DAS PEDRAS</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
@@ -35456,7 +35456,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>Correia Da Mata</t>
+          <t>CORREIA DA MATA</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
@@ -35501,7 +35501,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>Caldeira Dos Dourados</t>
+          <t>CALDEIRA DOS DOURADOS</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -35546,7 +35546,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>Araújo</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
@@ -35591,7 +35591,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>Cardoso Do Oeste</t>
+          <t>CARDOSO DO OESTE</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
@@ -35636,7 +35636,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>Da Paz De Barros</t>
+          <t>DA PAZ DE BARROS</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -35681,7 +35681,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>Ramos Do Amparo</t>
+          <t>RAMOS DO AMPARO</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
@@ -35726,7 +35726,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>Pinto Das Pedras</t>
+          <t>PINTO DAS PEDRAS</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
@@ -35771,7 +35771,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -35816,7 +35816,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>Souza</t>
+          <t>SOUZA</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
@@ -35861,7 +35861,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>Ferreira</t>
+          <t>FERREIRA</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
@@ -35906,7 +35906,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -35951,7 +35951,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>Oliveira Do Norte</t>
+          <t>OLIVEIRA DO NORTE</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -35996,7 +35996,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>Castro Do Amparo</t>
+          <t>CASTRO DO AMPARO</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
@@ -36041,7 +36041,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>Pereira De Farias</t>
+          <t>PEREIRA DE FARIAS</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
@@ -36086,7 +36086,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>Da Rosa De Mendes</t>
+          <t>DA ROSA DE MENDES</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
@@ -36131,7 +36131,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
@@ -36176,7 +36176,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>Silveira Do Campo</t>
+          <t>SILVEIRA DO CAMPO</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -36221,7 +36221,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>Da Rocha Alegre</t>
+          <t>DA ROCHA ALEGRE</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
@@ -36266,7 +36266,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>Souza Da Praia</t>
+          <t>SOUZA DA PRAIA</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
@@ -36311,7 +36311,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>Ribeiro Do Galho</t>
+          <t>RIBEIRO DO GALHO</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -36356,7 +36356,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>Santos Grande</t>
+          <t>SANTOS GRANDE</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
@@ -36401,7 +36401,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>Da Rocha</t>
+          <t>DA ROCHA</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -36446,7 +36446,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>Costa De Nogueira</t>
+          <t>COSTA DE NOGUEIRA</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -36491,7 +36491,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
@@ -36536,7 +36536,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>Viana De Cardoso</t>
+          <t>VIANA DE CARDOSO</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
@@ -36581,7 +36581,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>Campos</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
@@ -36626,7 +36626,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>Rocha</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
@@ -36671,7 +36671,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>Ferreira Da Praia</t>
+          <t>FERREIRA DA PRAIA</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
@@ -36716,7 +36716,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>Rezende</t>
+          <t>REZENDE</t>
         </is>
       </c>
       <c r="D807" t="inlineStr">
@@ -36761,7 +36761,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>Da Mota Paulista</t>
+          <t>DA MOTA PAULISTA</t>
         </is>
       </c>
       <c r="D808" t="inlineStr">
@@ -36806,7 +36806,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>Nascimento Do Galho</t>
+          <t>NASCIMENTO DO GALHO</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
@@ -36851,7 +36851,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>Da Mata Da Mata</t>
+          <t>DA MATA DA MATA</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
@@ -36896,7 +36896,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>Cavalcanti</t>
+          <t>CAVALCANTI</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
@@ -36941,7 +36941,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>Nunes Das Pedras</t>
+          <t>NUNES DAS PEDRAS</t>
         </is>
       </c>
       <c r="D812" t="inlineStr">
@@ -36986,7 +36986,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D813" t="inlineStr">
@@ -37031,7 +37031,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>Lopes Do Amparo</t>
+          <t>LOPES DO AMPARO</t>
         </is>
       </c>
       <c r="D814" t="inlineStr">
@@ -37076,7 +37076,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>Martins Do Norte</t>
+          <t>MARTINS DO NORTE</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
@@ -37121,7 +37121,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>Da Paz Das Flores</t>
+          <t>DA PAZ DAS FLORES</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
@@ -37166,7 +37166,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>Novaes De Da Rocha</t>
+          <t>NOVAES DE DA ROCHA</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
@@ -37211,7 +37211,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>Ribeiro Da Serra</t>
+          <t>RIBEIRO DA SERRA</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
@@ -37256,7 +37256,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>Da Costa</t>
+          <t>DA COSTA</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
@@ -37301,7 +37301,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
@@ -37346,7 +37346,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>PORTO</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
@@ -37391,7 +37391,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>Moraes</t>
+          <t>MORAES</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
@@ -37436,7 +37436,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>Campos Verde</t>
+          <t>CAMPOS VERDE</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
@@ -37481,7 +37481,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>Caldeira Do Sul</t>
+          <t>CALDEIRA DO SUL</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
@@ -37526,7 +37526,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -37571,7 +37571,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>Azevedo De Goiás</t>
+          <t>AZEVEDO DE GOIAS</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
@@ -37616,7 +37616,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>Da Rosa De Pereira</t>
+          <t>DA ROSA DE PEREIRA</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
@@ -37661,7 +37661,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>Farias De Rezende</t>
+          <t>FARIAS DE REZENDE</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
@@ -37706,7 +37706,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>Souza Da Prata</t>
+          <t>SOUZA DA PRATA</t>
         </is>
       </c>
       <c r="D829" t="inlineStr">
@@ -37751,7 +37751,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
@@ -37796,7 +37796,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>PEREIRA</t>
         </is>
       </c>
       <c r="D831" t="inlineStr">
@@ -37841,7 +37841,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>Nascimento De Das Neves</t>
+          <t>NASCIMENTO DE DAS NEVES</t>
         </is>
       </c>
       <c r="D832" t="inlineStr">
@@ -37886,7 +37886,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>Ferreira</t>
+          <t>FERREIRA</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
@@ -37931,7 +37931,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>Da Mota Da Prata</t>
+          <t>DA MOTA DA PRATA</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
@@ -37976,7 +37976,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>Cunha</t>
+          <t>CUNHA</t>
         </is>
       </c>
       <c r="D835" t="inlineStr">
@@ -38021,7 +38021,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>Costela De Gonçalves</t>
+          <t>COSTELA DE GONCALVES</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
@@ -38066,7 +38066,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
@@ -38111,7 +38111,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>Da Conceição</t>
+          <t>DA CONCEICAO</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
@@ -38156,7 +38156,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D839" t="inlineStr">
@@ -38201,7 +38201,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>Correia Do Sul</t>
+          <t>CORREIA DO SUL</t>
         </is>
       </c>
       <c r="D840" t="inlineStr">
@@ -38246,7 +38246,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>Cavalcanti Do Sul</t>
+          <t>CAVALCANTI DO SUL</t>
         </is>
       </c>
       <c r="D841" t="inlineStr">
@@ -38291,7 +38291,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>Rodrigues Do Amparo</t>
+          <t>RODRIGUES DO AMPARO</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
@@ -38336,7 +38336,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>Caldeira Do Oeste</t>
+          <t>CALDEIRA DO OESTE</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
@@ -38381,7 +38381,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>Mendes Das Flores</t>
+          <t>MENDES DAS FLORES</t>
         </is>
       </c>
       <c r="D844" t="inlineStr">
@@ -38426,7 +38426,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>Campos Das Flores</t>
+          <t>CAMPOS DAS FLORES</t>
         </is>
       </c>
       <c r="D845" t="inlineStr">
@@ -38471,7 +38471,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>Da Cunha De Minas</t>
+          <t>DA CUNHA DE MINAS</t>
         </is>
       </c>
       <c r="D846" t="inlineStr">
@@ -38516,7 +38516,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>Ferreira</t>
+          <t>FERREIRA</t>
         </is>
       </c>
       <c r="D847" t="inlineStr">
@@ -38561,7 +38561,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>Nascimento</t>
+          <t>NASCIMENTO</t>
         </is>
       </c>
       <c r="D848" t="inlineStr">
@@ -38606,7 +38606,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
@@ -38651,7 +38651,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>PEIXOTO</t>
         </is>
       </c>
       <c r="D850" t="inlineStr">
@@ -38696,7 +38696,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>Nunes Paulista</t>
+          <t>NUNES PAULISTA</t>
         </is>
       </c>
       <c r="D851" t="inlineStr">
@@ -38741,7 +38741,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>Santos Do Sul</t>
+          <t>SANTOS DO SUL</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
@@ -38786,7 +38786,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>Silveira</t>
+          <t>SILVEIRA</t>
         </is>
       </c>
       <c r="D853" t="inlineStr">
@@ -38831,7 +38831,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>Carvalho De Silveira</t>
+          <t>CARVALHO DE SILVEIRA</t>
         </is>
       </c>
       <c r="D854" t="inlineStr">
@@ -38876,7 +38876,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>Aragão Da Serra</t>
+          <t>ARAGAO DA SERRA</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
@@ -38921,7 +38921,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>Nogueira</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="D856" t="inlineStr">
@@ -38966,7 +38966,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>Da Costa</t>
+          <t>DA COSTA</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
@@ -39011,7 +39011,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>Da Mata Paulista</t>
+          <t>DA MATA PAULISTA</t>
         </is>
       </c>
       <c r="D858" t="inlineStr">
@@ -39056,7 +39056,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>Duarte</t>
+          <t>DUARTE</t>
         </is>
       </c>
       <c r="D859" t="inlineStr">
@@ -39101,7 +39101,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>Porto De Cardoso</t>
+          <t>PORTO DE CARDOSO</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
@@ -39146,7 +39146,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Pinto Do Oeste</t>
+          <t>PINTO DO OESTE</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
@@ -39191,7 +39191,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D862" t="inlineStr">
@@ -39236,7 +39236,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>GOMES</t>
         </is>
       </c>
       <c r="D863" t="inlineStr">
@@ -39281,7 +39281,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>Carvalho Do Norte</t>
+          <t>CARVALHO DO NORTE</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
@@ -39326,7 +39326,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="D865" t="inlineStr">
@@ -39371,7 +39371,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>GOMES</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
@@ -39416,7 +39416,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>TEIXEIRA</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
@@ -39461,7 +39461,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D868" t="inlineStr">
@@ -39506,7 +39506,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>Araújo</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
@@ -39551,7 +39551,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Rezende</t>
+          <t>REZENDE</t>
         </is>
       </c>
       <c r="D870" t="inlineStr">
@@ -39596,7 +39596,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>Campos Paulista</t>
+          <t>CAMPOS PAULISTA</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
@@ -39641,7 +39641,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Nascimento</t>
+          <t>NASCIMENTO</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
@@ -39686,7 +39686,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Da Conceição De Rocha</t>
+          <t>DA CONCEICAO DE ROCHA</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
@@ -39731,7 +39731,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Da Paz De Santos</t>
+          <t>DA PAZ DE SANTOS</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
@@ -39776,7 +39776,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
@@ -39821,7 +39821,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Moraes De Moraes</t>
+          <t>MORAES DE MORAES</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
@@ -39911,7 +39911,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Freitas</t>
+          <t>FREITAS</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
@@ -39956,7 +39956,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Santos De Ferreira</t>
+          <t>SANTOS DE FERREIRA</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
@@ -40001,7 +40001,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
@@ -40046,7 +40046,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Duarte Da Mata</t>
+          <t>DUARTE DA MATA</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
@@ -40091,7 +40091,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Da Paz</t>
+          <t>DA PAZ</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
@@ -40136,7 +40136,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Da Paz</t>
+          <t>DA PAZ</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
@@ -40181,7 +40181,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Ferreira De Minas</t>
+          <t>FERREIRA DE MINAS</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
@@ -40226,7 +40226,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>GOMES</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
@@ -40271,7 +40271,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Gonçalves Da Prata</t>
+          <t>GONCALVES DA PRATA</t>
         </is>
       </c>
       <c r="D886" t="inlineStr">
@@ -40316,7 +40316,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Rezende Verde</t>
+          <t>REZENDE VERDE</t>
         </is>
       </c>
       <c r="D887" t="inlineStr">
@@ -40361,7 +40361,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D888" t="inlineStr">
@@ -40406,7 +40406,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Mendes Da Prata</t>
+          <t>MENDES DA PRATA</t>
         </is>
       </c>
       <c r="D889" t="inlineStr">
@@ -40451,7 +40451,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Caldeira Do Norte</t>
+          <t>CALDEIRA DO NORTE</t>
         </is>
       </c>
       <c r="D890" t="inlineStr">
@@ -40496,7 +40496,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D891" t="inlineStr">
@@ -40541,7 +40541,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D892" t="inlineStr">
@@ -40586,7 +40586,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Rezende</t>
+          <t>REZENDE</t>
         </is>
       </c>
       <c r="D893" t="inlineStr">
@@ -40631,7 +40631,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Rocha De Goiás</t>
+          <t>ROCHA DE GOIAS</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
@@ -40676,7 +40676,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Pires Do Amparo</t>
+          <t>PIRES DO AMPARO</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
@@ -40721,7 +40721,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Farias Grande</t>
+          <t>FARIAS GRANDE</t>
         </is>
       </c>
       <c r="D896" t="inlineStr">
@@ -40766,7 +40766,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Oliveira</t>
+          <t>OLIVEIRA</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
@@ -40811,7 +40811,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Correia De Da Mata</t>
+          <t>CORREIA DE DA MATA</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
@@ -40856,7 +40856,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Cavalcanti De Da Rocha</t>
+          <t>CAVALCANTI DE DA ROCHA</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
@@ -40901,7 +40901,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
@@ -40946,7 +40946,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Dias Do Galho</t>
+          <t>DIAS DO GALHO</t>
         </is>
       </c>
       <c r="D901" t="inlineStr">
@@ -40991,7 +40991,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
@@ -41036,7 +41036,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Oliveira Do Galho</t>
+          <t>OLIVEIRA DO GALHO</t>
         </is>
       </c>
       <c r="D903" t="inlineStr">
@@ -41081,7 +41081,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Cavalcanti</t>
+          <t>CAVALCANTI</t>
         </is>
       </c>
       <c r="D904" t="inlineStr">
@@ -41126,7 +41126,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D905" t="inlineStr">
@@ -41171,7 +41171,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Pinto</t>
+          <t>PINTO</t>
         </is>
       </c>
       <c r="D906" t="inlineStr">
@@ -41216,7 +41216,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D907" t="inlineStr">
@@ -41261,7 +41261,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D908" t="inlineStr">
@@ -41306,7 +41306,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Sales De Pereira</t>
+          <t>SALES DE PEREIRA</t>
         </is>
       </c>
       <c r="D909" t="inlineStr">
@@ -41351,7 +41351,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Freitas</t>
+          <t>FREITAS</t>
         </is>
       </c>
       <c r="D910" t="inlineStr">
@@ -41396,7 +41396,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Dias De Ferreira</t>
+          <t>DIAS DE FERREIRA</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
@@ -41441,7 +41441,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Moura</t>
+          <t>MOURA</t>
         </is>
       </c>
       <c r="D912" t="inlineStr">
@@ -41486,7 +41486,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>CARDOSO</t>
         </is>
       </c>
       <c r="D913" t="inlineStr">
@@ -41531,7 +41531,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Fogaça</t>
+          <t>FOGACA</t>
         </is>
       </c>
       <c r="D914" t="inlineStr">
@@ -41576,7 +41576,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>GONCALVES</t>
         </is>
       </c>
       <c r="D915" t="inlineStr">
@@ -41621,7 +41621,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Araújo</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="D916" t="inlineStr">
@@ -41666,7 +41666,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Nunes Da Prata</t>
+          <t>NUNES DA PRATA</t>
         </is>
       </c>
       <c r="D917" t="inlineStr">
@@ -41711,7 +41711,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Barbosa Do Galho</t>
+          <t>BARBOSA DO GALHO</t>
         </is>
       </c>
       <c r="D918" t="inlineStr">
@@ -41756,7 +41756,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Costa Do Campo</t>
+          <t>COSTA DO CAMPO</t>
         </is>
       </c>
       <c r="D919" t="inlineStr">
@@ -41801,7 +41801,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Lopes Da Prata</t>
+          <t>LOPES DA PRATA</t>
         </is>
       </c>
       <c r="D920" t="inlineStr">
@@ -41846,7 +41846,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Monteiro</t>
+          <t>MONTEIRO</t>
         </is>
       </c>
       <c r="D921" t="inlineStr">
@@ -41891,7 +41891,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Mendes De Barbosa</t>
+          <t>MENDES DE BARBOSA</t>
         </is>
       </c>
       <c r="D922" t="inlineStr">
@@ -41936,7 +41936,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Carvalho De Teixeira</t>
+          <t>CARVALHO DE TEIXEIRA</t>
         </is>
       </c>
       <c r="D923" t="inlineStr">
@@ -41981,7 +41981,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>LOPES</t>
         </is>
       </c>
       <c r="D924" t="inlineStr">
@@ -42026,7 +42026,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Campos Da Praia</t>
+          <t>CAMPOS DA PRAIA</t>
         </is>
       </c>
       <c r="D925" t="inlineStr">
@@ -42071,7 +42071,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Barbosa De Minas</t>
+          <t>BARBOSA DE MINAS</t>
         </is>
       </c>
       <c r="D926" t="inlineStr">
@@ -42116,7 +42116,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Rezende Da Prata</t>
+          <t>REZENDE DA PRATA</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
@@ -42161,7 +42161,7 @@
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Azevedo Da Praia</t>
+          <t>AZEVEDO DA PRAIA</t>
         </is>
       </c>
       <c r="D928" t="inlineStr">
@@ -42206,7 +42206,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Souza</t>
+          <t>SOUZA</t>
         </is>
       </c>
       <c r="D929" t="inlineStr">
@@ -42251,7 +42251,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Ramos Do Galho</t>
+          <t>RAMOS DO GALHO</t>
         </is>
       </c>
       <c r="D930" t="inlineStr">
@@ -42296,7 +42296,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Silveira</t>
+          <t>SILVEIRA</t>
         </is>
       </c>
       <c r="D931" t="inlineStr">
@@ -42341,7 +42341,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>VIANA</t>
         </is>
       </c>
       <c r="D932" t="inlineStr">
@@ -42386,7 +42386,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Duarte Dos Dourados</t>
+          <t>DUARTE DOS DOURADOS</t>
         </is>
       </c>
       <c r="D933" t="inlineStr">
@@ -42431,7 +42431,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>VIANA</t>
         </is>
       </c>
       <c r="D934" t="inlineStr">
@@ -42476,7 +42476,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Lopes Da Mata</t>
+          <t>LOPES DA MATA</t>
         </is>
       </c>
       <c r="D935" t="inlineStr">
@@ -42521,7 +42521,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Lopes De Das Neves</t>
+          <t>LOPES DE DAS NEVES</t>
         </is>
       </c>
       <c r="D936" t="inlineStr">
@@ -42566,7 +42566,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Novaes</t>
+          <t>NOVAES</t>
         </is>
       </c>
       <c r="D937" t="inlineStr">
@@ -42611,7 +42611,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Souza</t>
+          <t>SOUZA</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
@@ -42656,7 +42656,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Da Conceição De Ferreira</t>
+          <t>DA CONCEICAO DE FERREIRA</t>
         </is>
       </c>
       <c r="D939" t="inlineStr">
@@ -42701,7 +42701,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>COSTA</t>
         </is>
       </c>
       <c r="D940" t="inlineStr">
@@ -42746,7 +42746,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Moraes</t>
+          <t>MORAES</t>
         </is>
       </c>
       <c r="D941" t="inlineStr">
@@ -42791,7 +42791,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Farias Das Flores</t>
+          <t>FARIAS DAS FLORES</t>
         </is>
       </c>
       <c r="D942" t="inlineStr">
@@ -42836,7 +42836,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Duarte Alegre</t>
+          <t>DUARTE ALEGRE</t>
         </is>
       </c>
       <c r="D943" t="inlineStr">
@@ -42881,7 +42881,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Da Luz</t>
+          <t>DA LUZ</t>
         </is>
       </c>
       <c r="D944" t="inlineStr">
@@ -42926,7 +42926,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Gomes Das Flores</t>
+          <t>GOMES DAS FLORES</t>
         </is>
       </c>
       <c r="D945" t="inlineStr">
@@ -42971,7 +42971,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Porto Do Oeste</t>
+          <t>PORTO DO OESTE</t>
         </is>
       </c>
       <c r="D946" t="inlineStr">
@@ -43016,7 +43016,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Gomes Da Mata</t>
+          <t>GOMES DA MATA</t>
         </is>
       </c>
       <c r="D947" t="inlineStr">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Almeida</t>
+          <t>ALMEIDA</t>
         </is>
       </c>
       <c r="D948" t="inlineStr">
@@ -43106,7 +43106,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Ribeiro De Minas</t>
+          <t>RIBEIRO DE MINAS</t>
         </is>
       </c>
       <c r="D949" t="inlineStr">
@@ -43151,7 +43151,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Castro Da Prata</t>
+          <t>CASTRO DA PRATA</t>
         </is>
       </c>
       <c r="D950" t="inlineStr">
@@ -43196,7 +43196,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Duarte Da Prata</t>
+          <t>DUARTE DA PRATA</t>
         </is>
       </c>
       <c r="D951" t="inlineStr">
@@ -43241,7 +43241,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Freitas Do Galho</t>
+          <t>FREITAS DO GALHO</t>
         </is>
       </c>
       <c r="D952" t="inlineStr">
@@ -43286,7 +43286,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Costa De Minas</t>
+          <t>COSTA DE MINAS</t>
         </is>
       </c>
       <c r="D953" t="inlineStr">
@@ -43331,7 +43331,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Das Neves De Cardoso</t>
+          <t>DAS NEVES DE CARDOSO</t>
         </is>
       </c>
       <c r="D954" t="inlineStr">
@@ -43376,7 +43376,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Monteiro Do Sul</t>
+          <t>MONTEIRO DO SUL</t>
         </is>
       </c>
       <c r="D955" t="inlineStr">
@@ -43421,7 +43421,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Rocha</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="D956" t="inlineStr">
@@ -43466,7 +43466,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Ribeiro</t>
+          <t>RIBEIRO</t>
         </is>
       </c>
       <c r="D957" t="inlineStr">
@@ -43511,7 +43511,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="D958" t="inlineStr">
@@ -43556,7 +43556,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Barbosa</t>
+          <t>BARBOSA</t>
         </is>
       </c>
       <c r="D959" t="inlineStr">
@@ -43601,7 +43601,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Almeida Do Amparo</t>
+          <t>ALMEIDA DO AMPARO</t>
         </is>
       </c>
       <c r="D960" t="inlineStr">
@@ -43646,7 +43646,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Pereira Do Sul</t>
+          <t>PEREIRA DO SUL</t>
         </is>
       </c>
       <c r="D961" t="inlineStr">
@@ -43691,7 +43691,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Souza Do Oeste</t>
+          <t>SOUZA DO OESTE</t>
         </is>
       </c>
       <c r="D962" t="inlineStr">
@@ -43736,7 +43736,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Da Costa De Carvalho</t>
+          <t>DA COSTA DE CARVALHO</t>
         </is>
       </c>
       <c r="D963" t="inlineStr">
@@ -43781,7 +43781,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Fernandes Da Serra</t>
+          <t>FERNANDES DA SERRA</t>
         </is>
       </c>
       <c r="D964" t="inlineStr">
@@ -43826,7 +43826,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Araújo Do Norte</t>
+          <t>ARAUJO DO NORTE</t>
         </is>
       </c>
       <c r="D965" t="inlineStr">
@@ -43871,7 +43871,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Almeida De Rodrigues</t>
+          <t>ALMEIDA DE RODRIGUES</t>
         </is>
       </c>
       <c r="D966" t="inlineStr">
@@ -43916,7 +43916,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Da Paz</t>
+          <t>DA PAZ</t>
         </is>
       </c>
       <c r="D967" t="inlineStr">
@@ -43961,7 +43961,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Souza Da Praia</t>
+          <t>SOUZA DA PRAIA</t>
         </is>
       </c>
       <c r="D968" t="inlineStr">
@@ -44006,7 +44006,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Almeida</t>
+          <t>ALMEIDA</t>
         </is>
       </c>
       <c r="D969" t="inlineStr">
@@ -44051,7 +44051,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Da Cunha De Minas</t>
+          <t>DA CUNHA DE MINAS</t>
         </is>
       </c>
       <c r="D970" t="inlineStr">
@@ -44096,7 +44096,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Ribeiro</t>
+          <t>RIBEIRO</t>
         </is>
       </c>
       <c r="D971" t="inlineStr">
@@ -44141,7 +44141,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Nogueira</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="D972" t="inlineStr">
@@ -44186,7 +44186,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>SANTOS</t>
         </is>
       </c>
       <c r="D973" t="inlineStr">
@@ -44231,7 +44231,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>DIAS</t>
         </is>
       </c>
       <c r="D974" t="inlineStr">
@@ -44276,7 +44276,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>DIAS</t>
         </is>
       </c>
       <c r="D975" t="inlineStr">
@@ -44321,7 +44321,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>Nascimento</t>
+          <t>NASCIMENTO</t>
         </is>
       </c>
       <c r="D976" t="inlineStr">
@@ -44366,7 +44366,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>Rezende Alegre</t>
+          <t>REZENDE ALEGRE</t>
         </is>
       </c>
       <c r="D977" t="inlineStr">
@@ -44411,7 +44411,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Cunha Da Prata</t>
+          <t>CUNHA DA PRATA</t>
         </is>
       </c>
       <c r="D978" t="inlineStr">
@@ -44456,7 +44456,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Moura Do Oeste</t>
+          <t>MOURA DO OESTE</t>
         </is>
       </c>
       <c r="D979" t="inlineStr">
@@ -44501,7 +44501,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Rezende Do Amparo</t>
+          <t>REZENDE DO AMPARO</t>
         </is>
       </c>
       <c r="D980" t="inlineStr">
@@ -44546,7 +44546,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Da Mota</t>
+          <t>DA MOTA</t>
         </is>
       </c>
       <c r="D981" t="inlineStr">
@@ -44591,7 +44591,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>SANTOS</t>
         </is>
       </c>
       <c r="D982" t="inlineStr">
@@ -44636,7 +44636,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>Campos Do Galho</t>
+          <t>CAMPOS DO GALHO</t>
         </is>
       </c>
       <c r="D983" t="inlineStr">
@@ -44681,7 +44681,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>Nunes Das Flores</t>
+          <t>NUNES DAS FLORES</t>
         </is>
       </c>
       <c r="D984" t="inlineStr">
@@ -44726,7 +44726,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>Nunes Do Galho</t>
+          <t>NUNES DO GALHO</t>
         </is>
       </c>
       <c r="D985" t="inlineStr">
@@ -44771,7 +44771,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>Da Conceição Da Praia</t>
+          <t>DA CONCEICAO DA PRAIA</t>
         </is>
       </c>
       <c r="D986" t="inlineStr">
@@ -44816,7 +44816,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>Da Cruz</t>
+          <t>DA CRUZ</t>
         </is>
       </c>
       <c r="D987" t="inlineStr">
@@ -44861,7 +44861,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Barbosa</t>
+          <t>BARBOSA</t>
         </is>
       </c>
       <c r="D988" t="inlineStr">
@@ -44906,7 +44906,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>Correia De Nunes</t>
+          <t>CORREIA DE NUNES</t>
         </is>
       </c>
       <c r="D989" t="inlineStr">
@@ -44951,7 +44951,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>Moura</t>
+          <t>MOURA</t>
         </is>
       </c>
       <c r="D990" t="inlineStr">
@@ -44996,7 +44996,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>Novaes Do Galho</t>
+          <t>NOVAES DO GALHO</t>
         </is>
       </c>
       <c r="D991" t="inlineStr">
@@ -45041,7 +45041,7 @@
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>Caldeira</t>
+          <t>CALDEIRA</t>
         </is>
       </c>
       <c r="D992" t="inlineStr">
@@ -45086,7 +45086,7 @@
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>MENDES</t>
         </is>
       </c>
       <c r="D993" t="inlineStr">
@@ -45131,7 +45131,7 @@
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>SANTOS</t>
         </is>
       </c>
       <c r="D994" t="inlineStr">
@@ -45176,7 +45176,7 @@
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>Freitas Paulista</t>
+          <t>FREITAS PAULISTA</t>
         </is>
       </c>
       <c r="D995" t="inlineStr">
@@ -45221,7 +45221,7 @@
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Souza De Cardoso</t>
+          <t>SOUZA DE CARDOSO</t>
         </is>
       </c>
       <c r="D996" t="inlineStr">
@@ -45266,7 +45266,7 @@
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Silva Do Sul</t>
+          <t>SILVA DO SUL</t>
         </is>
       </c>
       <c r="D997" t="inlineStr">
@@ -45311,7 +45311,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Da Conceição Da Praia</t>
+          <t>DA CONCEICAO DA PRAIA</t>
         </is>
       </c>
       <c r="D998" t="inlineStr">
@@ -45356,7 +45356,7 @@
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>Cavalcanti Grande</t>
+          <t>CAVALCANTI GRANDE</t>
         </is>
       </c>
       <c r="D999" t="inlineStr">
@@ -45401,7 +45401,7 @@
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>Ramos</t>
+          <t>RAMOS</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr">
@@ -45446,7 +45446,7 @@
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>Moura</t>
+          <t>MOURA</t>
         </is>
       </c>
       <c r="D1001" t="inlineStr">
